--- a/GA_bNa_bCa_NaK/Best_ind_ctrl3.xlsx
+++ b/GA_bNa_bCa_NaK/Best_ind_ctrl3.xlsx
@@ -492,37 +492,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1593064117189616</v>
+        <v>0.4875335846319167</v>
       </c>
       <c r="B2" t="n">
-        <v>1.684627879760852</v>
+        <v>1.224532070784376</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7399477648897497</v>
+        <v>0.2520065363055241</v>
       </c>
       <c r="D2" t="n">
-        <v>2.363182504240432</v>
+        <v>0.8273125496066837</v>
       </c>
       <c r="E2" t="n">
-        <v>7.145437294738457</v>
+        <v>1.412247438759806</v>
       </c>
       <c r="F2" t="n">
-        <v>5.309557429960228</v>
+        <v>3.100504616831975</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3850487583869559</v>
+        <v>6.284729579300754</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5713394106227505</v>
+        <v>0.1787472157803365</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5095104240107415</v>
+        <v>1.913735527788143</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2769972440553741</v>
+        <v>0.2565837512549758</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5224079026405386</v>
+        <v>1.539134868717328</v>
       </c>
     </row>
   </sheetData>
